--- a/Notes_C_CPP_Python/DS/60 LeetCode problems to solve for coding interiew.xlsx
+++ b/Notes_C_CPP_Python/DS/60 LeetCode problems to solve for coding interiew.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\Notes_C_CPP_Python\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B2AD7-A34A-439B-A6CE-193D97BEB060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1809BC7-38D5-4541-9A94-3850BE54E2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
   <si>
     <t>Problem</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="A1:Z86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -588,6 +588,9 @@
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
@@ -597,6 +600,9 @@
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
@@ -632,6 +638,9 @@
       <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
@@ -641,7 +650,9 @@
       <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -711,6 +722,9 @@
       <c r="B21" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:26" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
@@ -720,6 +734,9 @@
       <c r="B22" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:26" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
@@ -729,6 +746,9 @@
       <c r="B23" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:26" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
@@ -746,6 +766,9 @@
       </c>
       <c r="B25" s="7" t="s">
         <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12.45" x14ac:dyDescent="0.3">
@@ -859,6 +882,9 @@
       <c r="B35" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="1:26" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="str">

--- a/Notes_C_CPP_Python/DS/60 LeetCode problems to solve for coding interiew.xlsx
+++ b/Notes_C_CPP_Python/DS/60 LeetCode problems to solve for coding interiew.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\Notes_C_CPP_Python\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1809BC7-38D5-4541-9A94-3850BE54E2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613ABD72-01A2-4919-9CEB-221D5D5CB1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$C$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="18">
   <si>
     <t>Problem</t>
   </si>
@@ -509,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1013,6 +1016,9 @@
       <c r="B48" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="49" spans="1:26" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="str">
@@ -1040,6 +1046,9 @@
       <c r="B51" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="1:26" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="str">
@@ -1049,6 +1058,9 @@
       <c r="B52" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="53" spans="1:26" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="str">
@@ -1057,6 +1069,9 @@
       </c>
       <c r="B53" s="7" t="s">
         <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="12.45" x14ac:dyDescent="0.3">
@@ -1364,6 +1379,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:C9" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B1:B1010">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="easy">
       <formula>NOT(ISERROR(SEARCH(("easy"),(B1))))</formula>
